--- a/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.56</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.06</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.82</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.17</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6725</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.82</v>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -991,14 +1034,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
@@ -1007,14 +1140,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="5">
@@ -1023,13 +1156,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.07</v>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.82</v>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1140,14 +1205,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.98</v>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1156,14 +1243,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.62</v>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1172,13 +1281,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.12</v>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.07</v>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9994</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.82</v>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1479,14 +1566,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.98</v>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1495,14 +1604,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.62</v>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1511,13 +1642,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,91 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3795</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -551,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -602,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320005</t>
+          <t>002692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安价值增长混合</t>
+          <t>富国创新科技混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>39.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5221</t>
+          <t>1.8128</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -640,36 +694,264 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002291</t>
+          <t>100060</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安安鑫灵活配置混合</t>
+          <t>富国高新技术产业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0946</t>
+          <t>0.9994</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,7 +986,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -734,36 +1016,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320005</t>
+          <t>002692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安价值增长混合</t>
+          <t>富国创新科技混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>40.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8050</t>
+          <t>2.0528</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -772,36 +1054,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>002291</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>诺安安鑫灵活配置混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1713</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +1308,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -876,26 +1348,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6725</t>
+          <t>0.8877</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -914,22 +1386,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1474</t>
+          <t>0.1803</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -968,7 +1440,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1008,26 +1480,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8877</t>
+          <t>0.6725</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1046,22 +1518,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1803</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1079,7 +1551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,7 +1572,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1130,36 +1602,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002692</t>
+          <t>320005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国创新科技混合A</t>
+          <t>诺安价值增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.49</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0528</t>
+          <t>0.8050</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1168,226 +1640,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100060</t>
+          <t>002291</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国高新技术产业混合</t>
+          <t>诺安安鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.64</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5470</t>
+          <t>0.1713</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501077</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9506</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7375</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007345</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6192</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002291</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安安鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1640</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011120</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国创新科技混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1422,7 +1704,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1452,36 +1734,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002692</t>
+          <t>320005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国创新科技混合A</t>
+          <t>诺安价值增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.93</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8128</t>
+          <t>0.5221</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1490,264 +1772,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100060</t>
+          <t>002291</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国高新技术产业混合</t>
+          <t>诺安安鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9994</t>
+          <t>0.0946</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>320005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6508</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007345</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5460</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501077</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4385</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011120</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国创新科技混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1761,144 +1815,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.38</v>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>6.12</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.07</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.62</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1274,138 +1385,6 @@
       </c>
       <c r="H8" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8877</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002291</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安安鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1803</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1419,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1480,26 +1459,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6725</t>
+          <t>0.8877</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1518,22 +1497,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1474</t>
+          <t>0.1803</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1612,22 +1591,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8050</t>
+          <t>0.6725</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1650,22 +1629,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1713</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1744,26 +1723,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5221</t>
+          <t>0.8050</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1782,26 +1761,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0946</t>
+          <t>0.1713</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1810,6 +1789,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002605-姚记科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>6.12</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.62</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +794,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>83.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3609</t>
+          <t>0.4064</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -711,6 +822,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,7 +1275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1385,138 +1590,6 @@
       </c>
       <c r="H8" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8877</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002291</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安安鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1803</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +1624,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1591,26 +1664,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6725</t>
+          <t>0.8877</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1629,22 +1702,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1474</t>
+          <t>0.1803</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1723,22 +1796,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8050</t>
+          <t>0.6725</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1761,22 +1834,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1713</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1855,26 +1928,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5221</t>
+          <t>0.8050</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1893,26 +1966,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0946</t>
+          <t>0.1713</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1926,53 +1999,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1987,29 +2060,67 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.18</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3795</t>
+          <t>0.5221</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>